--- a/test/functional/xlsx_files/simple03.xlsx
+++ b/test/functional/xlsx_files/simple03.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Data Sheet" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
